--- a/CMM507 Timeline.xlsx
+++ b/CMM507 Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalyj\Google Drive\RGU\MSc Data Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABF6D9-6E94-4463-836A-77ABA90CA3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0058CB2-0B97-478F-A843-B26E1478B526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" xr2:uid="{A36A593E-BCE3-4549-A92F-EC56B17D9ABF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Mon</t>
   </si>
@@ -81,6 +81,15 @@
   <si>
     <t>Pool resources
 Group: discuss initial findings, identify new areas to look, paths to follow, resolve any difficulties in research found</t>
+  </si>
+  <si>
+    <t>Review presentation 1</t>
+  </si>
+  <si>
+    <t>Review presentation 2</t>
+  </si>
+  <si>
+    <t>Draft presentation</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -175,6 +190,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC8DD43-1DE6-4B5C-83CD-97284440D7BC}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +567,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -564,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
@@ -604,7 +621,9 @@
         <f t="shared" si="0"/>
         <v>43885</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -624,7 +643,9 @@
         <f t="shared" si="0"/>
         <v>43892</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -644,13 +665,15 @@
         <f t="shared" si="0"/>
         <v>43899</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="5"/>
@@ -788,7 +811,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>7</v>
       </c>
     </row>
